--- a/build/output/StructureDefinition-plannet-HealthcareService.xlsx
+++ b/build/output/StructureDefinition-plannet-HealthcareService.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="384">
   <si>
     <t>Path</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -3547,7 +3550,7 @@
         <v>38</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>38</v>
@@ -3601,15 +3604,15 @@
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3632,16 +3635,16 @@
         <v>47</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3691,7 +3694,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3706,7 +3709,7 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3714,11 +3717,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3740,13 +3743,13 @@
         <v>137</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3772,13 +3775,13 @@
         <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>38</v>
@@ -3796,7 +3799,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3811,19 +3814,19 @@
         <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3845,10 +3848,10 @@
         <v>137</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3875,13 +3878,13 @@
         <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>38</v>
@@ -3899,7 +3902,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3914,7 +3917,7 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3922,7 +3925,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3948,10 +3951,10 @@
         <v>137</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3981,10 +3984,10 @@
         <v>70</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
@@ -4002,7 +4005,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -4017,7 +4020,7 @@
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4048,13 +4051,13 @@
         <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4105,7 +4108,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -4120,15 +4123,15 @@
         <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4154,10 +4157,10 @@
         <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4208,7 +4211,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4223,7 +4226,7 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -4231,7 +4234,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4257,13 +4260,13 @@
         <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4313,7 +4316,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4328,7 +4331,7 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4359,13 +4362,13 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4416,7 +4419,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4431,7 +4434,7 @@
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4439,7 +4442,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4462,13 +4465,13 @@
         <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4519,7 +4522,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4534,7 +4537,7 @@
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4542,7 +4545,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4565,16 +4568,16 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4624,7 +4627,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4639,7 +4642,7 @@
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4647,7 +4650,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4750,7 +4753,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4855,10 +4858,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>38</v>
@@ -4880,13 +4883,13 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4960,10 +4963,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>38</v>
@@ -4985,10 +4988,10 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>101</v>
@@ -5065,7 +5068,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5091,10 +5094,10 @@
         <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5124,10 +5127,10 @@
         <v>131</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>38</v>
@@ -5145,7 +5148,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -5154,13 +5157,13 @@
         <v>46</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5194,16 +5197,16 @@
         <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>38</v>
@@ -5252,7 +5255,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5267,7 +5270,7 @@
         <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -5275,7 +5278,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5301,16 +5304,16 @@
         <v>66</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>38</v>
@@ -5338,10 +5341,10 @@
         <v>131</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>38</v>
@@ -5359,7 +5362,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5374,7 +5377,7 @@
         <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -5382,7 +5385,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5405,16 +5408,16 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5464,7 +5467,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5487,7 +5490,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5513,10 +5516,10 @@
         <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5567,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5582,7 +5585,7 @@
         <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -5590,7 +5593,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5613,16 +5616,16 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5672,7 +5675,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5687,7 +5690,7 @@
         <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -5695,7 +5698,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5721,13 +5724,13 @@
         <v>137</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5753,13 +5756,13 @@
         <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>38</v>
@@ -5777,7 +5780,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5792,7 +5795,7 @@
         <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -5800,7 +5803,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5823,13 +5826,13 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5880,7 +5883,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5903,7 +5906,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6006,7 +6009,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6111,11 +6114,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6137,10 +6140,10 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>107</v>
@@ -6195,7 +6198,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6244,10 +6247,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6274,10 +6277,10 @@
         <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y47" t="s" s="2">
         <v>38</v>
@@ -6298,7 +6301,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6313,7 +6316,7 @@
         <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -6321,7 +6324,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6344,16 +6347,16 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6403,7 +6406,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6418,7 +6421,7 @@
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -6426,7 +6429,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6452,13 +6455,13 @@
         <v>137</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6484,13 +6487,13 @@
         <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>38</v>
@@ -6508,7 +6511,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6523,7 +6526,7 @@
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -6531,7 +6534,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6557,13 +6560,13 @@
         <v>137</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6589,10 +6592,10 @@
         <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>38</v>
@@ -6613,7 +6616,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6628,7 +6631,7 @@
         <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -6636,7 +6639,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6662,13 +6665,13 @@
         <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6718,7 +6721,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6741,7 +6744,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6767,10 +6770,10 @@
         <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6797,13 +6800,13 @@
         <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>38</v>
@@ -6821,7 +6824,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6836,7 +6839,7 @@
         <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -6844,7 +6847,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6870,10 +6873,10 @@
         <v>175</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6924,7 +6927,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6939,7 +6942,7 @@
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -6947,7 +6950,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6970,16 +6973,16 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7029,7 +7032,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -7044,7 +7047,7 @@
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -7052,7 +7055,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7155,7 +7158,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7260,11 +7263,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7286,10 +7289,10 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>107</v>
@@ -7344,7 +7347,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7367,7 +7370,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7393,10 +7396,10 @@
         <v>66</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7426,10 +7429,10 @@
         <v>131</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>38</v>
@@ -7447,7 +7450,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7462,7 +7465,7 @@
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -7470,7 +7473,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7496,10 +7499,10 @@
         <v>175</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7550,7 +7553,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7565,7 +7568,7 @@
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -7573,7 +7576,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7596,16 +7599,16 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7655,7 +7658,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7670,7 +7673,7 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -7678,7 +7681,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7701,16 +7704,16 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7760,7 +7763,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7775,7 +7778,7 @@
         <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7806,13 +7809,13 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7863,7 +7866,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7878,7 +7881,7 @@
         <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7989,7 +7992,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8094,11 +8097,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8120,10 +8123,10 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>107</v>
@@ -8178,7 +8181,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8201,7 +8204,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8227,10 +8230,10 @@
         <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8281,7 +8284,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>46</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8330,10 +8333,10 @@
         <v>162</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8384,7 +8387,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8399,7 +8402,7 @@
         <v>58</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -8407,7 +8410,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8433,10 +8436,10 @@
         <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8487,7 +8490,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8502,7 +8505,7 @@
         <v>58</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -8510,7 +8513,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8533,13 +8536,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8590,7 +8593,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
